--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-cyclic-sample-properties.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-cyclic-sample-properties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="52">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">Multivalued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -184,7 +187,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -237,6 +240,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -292,7 +303,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -341,6 +352,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -353,7 +368,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -361,15 +376,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -390,13 +405,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -490,10 +505,13 @@
       <c r="K4" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="L4" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>11</v>
@@ -501,52 +519,58 @@
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>23</v>
+      <c r="D5" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
@@ -554,20 +578,23 @@
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>23</v>
+      <c r="D7" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="I7" s="7"/>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -614,10 +641,10 @@
     </row>
     <row r="11" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>10</v>
@@ -664,10 +691,13 @@
       <c r="K12" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="L12" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -675,25 +705,28 @@
       <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>23</v>
+      <c r="D13" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
@@ -701,20 +734,23 @@
       <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>23</v>
+      <c r="D14" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -722,47 +758,50 @@
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>23</v>
+      <c r="D15" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
     </row>
     <row r="17" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -783,22 +822,22 @@
       <c r="G18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
-        <v>28</v>
+      <c r="A19" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="9" t="s">
@@ -812,179 +851,197 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="19" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="L20" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="A21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="B21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="20" t="s">
         <v>25</v>
       </c>
+      <c r="F21" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="19" t="s">
-        <v>24</v>
+      <c r="H21" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="19" t="s">
+      <c r="A22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="B22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>41</v>
       </c>
+      <c r="F22" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="19" t="s">
-        <v>42</v>
+      <c r="H22" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="B23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>45</v>
       </c>
+      <c r="F23" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="19" t="s">
-        <v>44</v>
+      <c r="H23" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>45</v>
-      </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="19" t="s">
-        <v>47</v>
+      <c r="H24" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>23</v>
+      <c r="D25" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="14" t="s">
         <v>10</v>
       </c>
     </row>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-cyclic-sample-properties.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-cyclic-sample-properties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="54">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t xml:space="preserve">Unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern Type</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -405,13 +411,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
+      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20:N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -508,10 +514,16 @@
       <c r="L4" s="12" t="s">
         <v>22</v>
       </c>
+      <c r="M4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>11</v>
@@ -520,16 +532,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>10</v>
@@ -540,7 +552,7 @@
     </row>
     <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>11</v>
@@ -549,16 +561,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="H6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7"/>
       <c r="K6" s="14" t="s">
@@ -570,7 +582,7 @@
     </row>
     <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
@@ -579,16 +591,16 @@
         <v>11</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I7" s="7"/>
       <c r="K7" s="14" t="s">
@@ -641,10 +653,10 @@
     </row>
     <row r="11" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>10</v>
@@ -694,10 +706,16 @@
       <c r="L12" s="12" t="s">
         <v>22</v>
       </c>
+      <c r="M12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -706,16 +724,16 @@
         <v>11</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>10</v>
@@ -726,7 +744,7 @@
     </row>
     <row r="14" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
@@ -735,16 +753,16 @@
         <v>11</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7"/>
       <c r="K14" s="14" t="s">
@@ -765,13 +783,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>9</v>
@@ -828,16 +846,16 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="9" t="s">
@@ -887,10 +905,16 @@
       <c r="L20" s="12" t="s">
         <v>22</v>
       </c>
+      <c r="M20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>11</v>
@@ -899,17 +923,17 @@
         <v>11</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -922,7 +946,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>11</v>
@@ -931,17 +955,17 @@
         <v>11</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -954,7 +978,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>11</v>
@@ -963,17 +987,17 @@
         <v>11</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -986,7 +1010,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>11</v>
@@ -995,17 +1019,17 @@
         <v>11</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>46</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1018,7 +1042,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>10</v>
@@ -1027,16 +1051,16 @@
         <v>11</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K25" s="14" t="s">
         <v>10</v>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-cyclic-sample-properties.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-cyclic-sample-properties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="55">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pattern Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Assignment</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -193,7 +196,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -251,6 +254,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -309,7 +326,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -362,6 +379,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -370,11 +391,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,7 +407,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -390,7 +415,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -411,13 +436,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20:N20"/>
+      <selection pane="topLeft" activeCell="P22" activeCellId="0" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -520,10 +545,13 @@
       <c r="N4" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="O4" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>11</v>
@@ -531,58 +559,64 @@
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>26</v>
+      <c r="D5" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="14" t="s">
+      <c r="K5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="H6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="K6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="14" t="s">
+      <c r="K6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
@@ -590,23 +624,26 @@
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>26</v>
+      <c r="D7" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="I7" s="7"/>
-      <c r="K7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -653,10 +690,10 @@
     </row>
     <row r="11" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>10</v>
@@ -712,10 +749,13 @@
       <c r="N12" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="O12" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -723,28 +763,31 @@
       <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>26</v>
+      <c r="D13" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
@@ -752,23 +795,26 @@
       <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>26</v>
+      <c r="D14" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="K14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="14" t="s">
+      <c r="K14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -776,50 +822,53 @@
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>26</v>
+      <c r="D15" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="14" t="s">
+      <c r="K15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
     </row>
     <row r="17" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -840,22 +889,22 @@
       <c r="G18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
-        <v>31</v>
+      <c r="A19" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="9" t="s">
@@ -869,34 +918,34 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="21" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="11" t="s">
@@ -911,161 +960,179 @@
       <c r="N20" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="O20" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="16" t="s">
+      <c r="A21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="B21" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="E21" s="22" t="s">
         <v>28</v>
       </c>
+      <c r="F21" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="20" t="s">
-        <v>27</v>
+      <c r="H21" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="14" t="s">
+      <c r="K21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="20" t="s">
+      <c r="A22" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="B22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>44</v>
       </c>
+      <c r="F22" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="20" t="s">
-        <v>45</v>
+      <c r="H22" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="14" t="s">
+      <c r="K22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="20" t="s">
+      <c r="A23" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="B23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>48</v>
       </c>
+      <c r="F23" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="20" t="s">
-        <v>47</v>
+      <c r="H23" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="14" t="s">
+      <c r="K23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>48</v>
-      </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="20" t="s">
-        <v>50</v>
+      <c r="H24" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="14" t="s">
+      <c r="K24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>26</v>
+      <c r="D25" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="14" t="s">
+      <c r="K25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" s="16" t="s">
         <v>10</v>
       </c>
     </row>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-cyclic-sample-properties.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-cyclic-sample-properties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="54">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pattern Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Assignment</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -439,10 +436,10 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P22" activeCellId="0" sqref="P22"/>
+      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4:O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -545,31 +542,29 @@
       <c r="N4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>10</v>
@@ -577,31 +572,29 @@
       <c r="L5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7"/>
       <c r="K6" s="15" t="s">
@@ -610,31 +603,29 @@
       <c r="L6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="H7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="7"/>
       <c r="K7" s="15" t="s">
@@ -643,12 +634,10 @@
       <c r="L7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,10 +679,10 @@
     </row>
     <row r="11" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>10</v>
@@ -749,63 +738,59 @@
       <c r="N12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="O12" s="13"/>
     </row>
     <row r="13" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7"/>
       <c r="K14" s="15" t="s">
@@ -814,9 +799,7 @@
       <c r="L14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
@@ -829,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>9</v>
@@ -846,14 +829,12 @@
       <c r="L15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O15" s="16"/>
+    </row>
+    <row r="16" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
     </row>
-    <row r="17" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
         <v>0</v>
       </c>
@@ -895,16 +876,16 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="9" t="s">
@@ -960,32 +941,30 @@
       <c r="N20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="O20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="18" t="s">
+      <c r="E21" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="F21" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -995,32 +974,30 @@
       <c r="L21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="O21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="22" t="s">
+      <c r="F22" s="22" t="s">
         <v>44</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>45</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1030,32 +1007,30 @@
       <c r="L22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="O22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="22" t="s">
+      <c r="F23" s="22" t="s">
         <v>48</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>49</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -1065,32 +1040,30 @@
       <c r="L23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="O23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1100,31 +1073,29 @@
       <c r="L24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O24" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="O24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="H25" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>10</v>
@@ -1132,9 +1103,7 @@
       <c r="L25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O25" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="O25" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-cyclic-sample-properties.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-cyclic-sample-properties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="56">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Code</t>
   </si>
   <si>
+    <t xml:space="preserve">Internal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
@@ -49,12 +52,12 @@
     <t xml:space="preserve">DEPARTMENT</t>
   </si>
   <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Department</t>
   </si>
   <si>
-    <t xml:space="preserve">FALSE</t>
-  </si>
-  <si>
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
@@ -97,7 +100,10 @@
     <t xml:space="preserve">Pattern Type</t>
   </si>
   <si>
-    <t xml:space="preserve">$NAME</t>
+    <t xml:space="preserve">Internal Assignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME</t>
   </si>
   <si>
     <t xml:space="preserve">General info</t>
@@ -193,7 +199,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -262,12 +268,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -323,7 +323,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -337,6 +337,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -356,6 +360,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -389,14 +397,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -404,15 +404,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -433,13 +429,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4:O25"/>
+      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -465,10 +461,10 @@
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -477,34 +473,40 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I2" s="2"/>
-      <c r="K2" s="6"/>
+      <c r="J2" s="2"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="6"/>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -522,119 +524,139 @@
         <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="13"/>
+      <c r="O4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="16"/>
+      <c r="F5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
+      <c r="A6" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="I6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="L6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="K6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="K7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="16"/>
+      <c r="F7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="L7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -661,10 +683,10 @@
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -673,34 +695,40 @@
       <c r="G10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I10" s="2"/>
-      <c r="K10" s="6"/>
+      <c r="J10" s="2"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="6"/>
+      <c r="A11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -718,138 +746,160 @@
         <v>18</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="13"/>
+      <c r="O12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>36</v>
+      <c r="A13" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="L14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="G15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="16"/>
-    </row>
-    <row r="14" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="K14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="16"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="16"/>
+      <c r="L15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
     </row>
     <row r="17" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -858,10 +908,10 @@
       <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -870,240 +920,276 @@
       <c r="G18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="3"/>
+      <c r="H18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>32</v>
+      <c r="A19" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="21" t="s">
+      <c r="H20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="I20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="M20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="N20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="13"/>
+      <c r="O20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="B21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="3"/>
+      <c r="F21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" s="16"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="22" t="s">
+      <c r="B22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="G22" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22" s="16"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="3"/>
+      <c r="B23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O23" s="16"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="22" t="s">
+      <c r="A24" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O24" s="16"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O25" s="16"/>
+      <c r="B25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
